--- a/medicine/Psychotrope/William_Molson/William_Molson.xlsx
+++ b/medicine/Psychotrope/William_Molson/William_Molson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Molson (Montréal, 5 novembre 1793 - 18 février 1875), fils de John Molson, est un homme d'affaires, banquier et brasseur canadien. 
 Il travaille avec son père dans la brasserie et s'intéresse aux techniques de production de la bière. Ces connaissances lui sont utiles dans les autres entreprises de la famille, notamment le monde bancaire.
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Notice dans un dictionnaire ou une encyclopédie généraliste : Dictionnaire biographique du Canada 
